--- a/Code/Results/Cases/Case_4_67/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_67/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.642908200998562</v>
+        <v>1.185544452515558</v>
       </c>
       <c r="C2">
-        <v>0.1025757193897618</v>
+        <v>0.06383851775807869</v>
       </c>
       <c r="D2">
-        <v>0.1926770714835442</v>
+        <v>0.07727191630942798</v>
       </c>
       <c r="E2">
-        <v>0.05541366341124387</v>
+        <v>0.08551212623796545</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.469841191784468</v>
+        <v>1.865936803006377</v>
       </c>
       <c r="H2">
-        <v>0.9267392981023477</v>
+        <v>1.591832250881993</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.380680375341797</v>
+        <v>0.7384429030062734</v>
       </c>
       <c r="L2">
-        <v>0.2669630813815047</v>
+        <v>0.2206154414127894</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.538110249322088</v>
+        <v>2.710617785907999</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.437233058470383</v>
+        <v>1.137594777445287</v>
       </c>
       <c r="C3">
-        <v>0.0930866375779118</v>
+        <v>0.06071183784505507</v>
       </c>
       <c r="D3">
-        <v>0.1667723881317471</v>
+        <v>0.07027250815387731</v>
       </c>
       <c r="E3">
-        <v>0.05150221819708278</v>
+        <v>0.08496741812924924</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.377617458603254</v>
+        <v>1.850413626096724</v>
       </c>
       <c r="H3">
-        <v>0.8918251020235886</v>
+        <v>1.590036896018105</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.19774885395654</v>
+        <v>0.6928460921953103</v>
       </c>
       <c r="L3">
-        <v>0.2356476804342975</v>
+        <v>0.2136260789454951</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.564260403222164</v>
+        <v>2.723139883655065</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.312780981530182</v>
+        <v>1.108845425852991</v>
       </c>
       <c r="C4">
-        <v>0.08727899774716263</v>
+        <v>0.05876537745957933</v>
       </c>
       <c r="D4">
-        <v>0.1510755139296549</v>
+        <v>0.0660127414868299</v>
       </c>
       <c r="E4">
-        <v>0.04917643844559549</v>
+        <v>0.08467119388705768</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.323508520135206</v>
+        <v>1.841801578447374</v>
       </c>
       <c r="H4">
-        <v>0.87178469883996</v>
+        <v>1.589565559122917</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.086820113964848</v>
+        <v>0.6652736217377253</v>
       </c>
       <c r="L4">
-        <v>0.2167649308259456</v>
+        <v>0.2094638957522079</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.582095683303194</v>
+        <v>2.731549818837543</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.26247683607329</v>
+        <v>1.097303835280002</v>
       </c>
       <c r="C5">
-        <v>0.08491483019891177</v>
+        <v>0.05796543455799252</v>
       </c>
       <c r="D5">
-        <v>0.1447247369149096</v>
+        <v>0.06428631605588464</v>
       </c>
       <c r="E5">
-        <v>0.04824647902562873</v>
+        <v>0.08456009926772623</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.302045762399274</v>
+        <v>1.838522883859213</v>
       </c>
       <c r="H5">
-        <v>0.8639483634800342</v>
+        <v>1.589532124424323</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.04192217091267</v>
+        <v>0.654144161821705</v>
       </c>
       <c r="L5">
-        <v>0.2091483029338832</v>
+        <v>0.207800262874386</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.589792645900637</v>
+        <v>2.735158143586794</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.254147302901259</v>
+        <v>1.095397872832507</v>
       </c>
       <c r="C6">
-        <v>0.0845223509979931</v>
+        <v>0.0578321961614634</v>
       </c>
       <c r="D6">
-        <v>0.1436727765819086</v>
+        <v>0.06400021412764545</v>
       </c>
       <c r="E6">
-        <v>0.04809310055070526</v>
+        <v>0.08454223325322907</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.298516064035937</v>
+        <v>1.837992387339952</v>
       </c>
       <c r="H6">
-        <v>0.862666507031534</v>
+        <v>1.589536153050787</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.034484189043638</v>
+        <v>0.6523025554862443</v>
       </c>
       <c r="L6">
-        <v>0.2078880550465669</v>
+        <v>0.2075259795126385</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.591096113503447</v>
+        <v>2.735768242670858</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.312100961335091</v>
+        <v>1.108689067377412</v>
       </c>
       <c r="C7">
-        <v>0.08724710646680478</v>
+        <v>0.05875461650934</v>
       </c>
       <c r="D7">
-        <v>0.1509896880649819</v>
+        <v>0.0659894200755673</v>
       </c>
       <c r="E7">
-        <v>0.04916382616635495</v>
+        <v>0.0846696566698828</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.323216747160473</v>
+        <v>1.841756426878277</v>
       </c>
       <c r="H7">
-        <v>0.8716777046874569</v>
+        <v>1.589564465943425</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.086213419441634</v>
+        <v>0.665123094693854</v>
       </c>
       <c r="L7">
-        <v>0.2166619043573377</v>
+        <v>0.2094413278975225</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.582197773858979</v>
+        <v>2.731597748506204</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.5715797687389</v>
+        <v>1.168867777269497</v>
       </c>
       <c r="C8">
-        <v>0.0992986216764038</v>
+        <v>0.06276594883755138</v>
       </c>
       <c r="D8">
-        <v>0.1836976723569137</v>
+        <v>0.07485061274189775</v>
       </c>
       <c r="E8">
-        <v>0.05404846586447221</v>
+        <v>0.08531637983508489</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.437491528558269</v>
+        <v>1.860393390955295</v>
       </c>
       <c r="H8">
-        <v>0.9143978222171256</v>
+        <v>1.591082218412907</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.317289471753242</v>
+        <v>0.7226330046054272</v>
       </c>
       <c r="L8">
-        <v>0.2560886098145545</v>
+        <v>0.2181786513121295</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.546746125043128</v>
+        <v>2.714785590945525</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.097416316201759</v>
+        <v>1.292375943890704</v>
       </c>
       <c r="C9">
-        <v>0.123189274431283</v>
+        <v>0.07042263748118671</v>
       </c>
       <c r="D9">
-        <v>0.2498199078591199</v>
+        <v>0.09253199035607906</v>
       </c>
       <c r="E9">
-        <v>0.06429084443549371</v>
+        <v>0.086887825260618</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.683795911221694</v>
+        <v>1.904254968994053</v>
       </c>
       <c r="H9">
-        <v>1.010285703139346</v>
+        <v>1.599068918329777</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.783618138418433</v>
+        <v>0.8387872180522891</v>
       </c>
       <c r="L9">
-        <v>0.3365595295642407</v>
+        <v>0.236340971679752</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.49223823238124</v>
+        <v>2.687548424322003</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.497855415078391</v>
+        <v>1.386491262260108</v>
       </c>
       <c r="C10">
-        <v>0.1410671977178026</v>
+        <v>0.07592356714809512</v>
       </c>
       <c r="D10">
-        <v>0.3001040684262932</v>
+        <v>0.1057149400281077</v>
       </c>
       <c r="E10">
-        <v>0.07231404899740923</v>
+        <v>0.08822733005385075</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.881709118050225</v>
+        <v>1.940973984157552</v>
       </c>
       <c r="H10">
-        <v>1.089685903669704</v>
+        <v>1.607998921978862</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.137546844412356</v>
+        <v>0.9262112725014049</v>
       </c>
       <c r="L10">
-        <v>0.3982409586344886</v>
+        <v>0.2503168996042859</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.462705526367486</v>
+        <v>2.671042956265367</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.684014653373254</v>
+        <v>1.430044947341173</v>
       </c>
       <c r="C11">
-        <v>0.1493132182848598</v>
+        <v>0.07839979564995758</v>
       </c>
       <c r="D11">
-        <v>0.3234719312332288</v>
+        <v>0.1117555270147932</v>
       </c>
       <c r="E11">
-        <v>0.07609517637949992</v>
+        <v>0.08887691188329327</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.976271874327409</v>
+        <v>1.958662173005479</v>
       </c>
       <c r="H11">
-        <v>1.128139321953142</v>
+        <v>1.612728236764923</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.301827168688959</v>
+        <v>0.9664419930385293</v>
       </c>
       <c r="L11">
-        <v>0.4270142042347942</v>
+        <v>0.2568133777561741</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.451892431553517</v>
+        <v>2.664298043872776</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.75516839549482</v>
+        <v>1.446644245320101</v>
       </c>
       <c r="C12">
-        <v>0.1524559976315061</v>
+        <v>0.07933376459101282</v>
       </c>
       <c r="D12">
-        <v>0.3324029124598553</v>
+        <v>0.1140493038042933</v>
       </c>
       <c r="E12">
-        <v>0.07754798624277726</v>
+        <v>0.08912867618441567</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.012810323844462</v>
+        <v>1.965502337936044</v>
       </c>
       <c r="H12">
-        <v>1.143072312423186</v>
+        <v>1.614615132418436</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.364581820703449</v>
+        <v>0.9817429332529741</v>
       </c>
       <c r="L12">
-        <v>0.4380270150884371</v>
+        <v>0.2592934413559931</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.448206573911847</v>
+        <v>2.661853940706564</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.739813406810299</v>
+        <v>1.443064554007833</v>
       </c>
       <c r="C13">
-        <v>0.151778179112128</v>
+        <v>0.07913278272702939</v>
       </c>
       <c r="D13">
-        <v>0.3304756263004549</v>
+        <v>0.1135550149730591</v>
       </c>
       <c r="E13">
-        <v>0.07723412910765859</v>
+        <v>0.08907419715251663</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.004907338607609</v>
+        <v>1.964022861774765</v>
       </c>
       <c r="H13">
-        <v>1.139839091265941</v>
+        <v>1.614204484254884</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.351040972058371</v>
+        <v>0.978444644861554</v>
       </c>
       <c r="L13">
-        <v>0.4356497619070865</v>
+        <v>0.2587584257325091</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.448981663648425</v>
+        <v>2.662375423456112</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.689854787748061</v>
+        <v>1.431408447714261</v>
       </c>
       <c r="C14">
-        <v>0.1495713480948382</v>
+        <v>0.0784767082712392</v>
       </c>
       <c r="D14">
-        <v>0.3242049757646583</v>
+        <v>0.1119441100038756</v>
       </c>
       <c r="E14">
-        <v>0.07621426676422871</v>
+        <v>0.08889750883048464</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.979262817297382</v>
+        <v>1.959222068319775</v>
       </c>
       <c r="H14">
-        <v>1.129360203571991</v>
+        <v>1.612881548151165</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.306978652534752</v>
+        <v>0.9676994782506938</v>
       </c>
       <c r="L14">
-        <v>0.4279178026849166</v>
+        <v>0.2570170132815122</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.451580806002255</v>
+        <v>2.66409475900403</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.659342198731053</v>
+        <v>1.424282611610465</v>
       </c>
       <c r="C15">
-        <v>0.148222352913379</v>
+        <v>0.07807435975620081</v>
       </c>
       <c r="D15">
-        <v>0.3203750594257571</v>
+        <v>0.110958211575138</v>
       </c>
       <c r="E15">
-        <v>0.07559236925778379</v>
+        <v>0.08879003497484561</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.963652272016532</v>
+        <v>1.956299954123494</v>
       </c>
       <c r="H15">
-        <v>1.12299109272044</v>
+        <v>1.61208371727767</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.280062545814275</v>
+        <v>0.9611264099698076</v>
       </c>
       <c r="L15">
-        <v>0.4231974415395285</v>
+        <v>0.255952951997088</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.453227099104311</v>
+        <v>2.665162240981672</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.48577694066671</v>
+        <v>1.383659822677487</v>
       </c>
       <c r="C16">
-        <v>0.1405309040979006</v>
+        <v>0.07576121642719613</v>
       </c>
       <c r="D16">
-        <v>0.2985877785861106</v>
+        <v>0.1053210565852396</v>
       </c>
       <c r="E16">
-        <v>0.07206976066120063</v>
+        <v>0.08818568763528134</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.87562688877324</v>
+        <v>1.939837869615161</v>
       </c>
       <c r="H16">
-        <v>1.087222833522731</v>
+        <v>1.607703279836073</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.126882836501125</v>
+        <v>0.9235913899755985</v>
       </c>
       <c r="L16">
-        <v>0.3963761210397792</v>
+        <v>0.2498951346262288</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.463467588133298</v>
+        <v>2.671499137770255</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.380381635853837</v>
+        <v>1.358928647656398</v>
       </c>
       <c r="C17">
-        <v>0.1358441052139057</v>
+        <v>0.07433550193979954</v>
       </c>
       <c r="D17">
-        <v>0.2853559356543656</v>
+        <v>0.1018740593880381</v>
       </c>
       <c r="E17">
-        <v>0.06994382014349654</v>
+        <v>0.08782524228022126</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.822839777692081</v>
+        <v>1.929991398664441</v>
       </c>
       <c r="H17">
-        <v>1.065902357533417</v>
+        <v>1.605186924837625</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.033801656062337</v>
+        <v>0.9006830602115201</v>
       </c>
       <c r="L17">
-        <v>0.380114757733466</v>
+        <v>0.246214423871308</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.470442881555442</v>
+        <v>2.675582353016011</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.320131781205646</v>
+        <v>1.344773594609308</v>
       </c>
       <c r="C18">
-        <v>0.1331587859425412</v>
+        <v>0.07351300293655072</v>
       </c>
       <c r="D18">
-        <v>0.2777910382218209</v>
+        <v>0.0998955372266721</v>
       </c>
       <c r="E18">
-        <v>0.06873326043453076</v>
+        <v>0.08762171091863635</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.792899400029597</v>
+        <v>1.924420609358179</v>
       </c>
       <c r="H18">
-        <v>1.053856705560293</v>
+        <v>1.603802360541096</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.980567357635636</v>
+        <v>0.8875501853418371</v>
       </c>
       <c r="L18">
-        <v>0.3708279253120992</v>
+        <v>0.2441104348514358</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.474699541173877</v>
+        <v>2.678002759679217</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.299793450806703</v>
+        <v>1.339992901057769</v>
       </c>
       <c r="C19">
-        <v>0.1322512576509496</v>
+        <v>0.07323409424290617</v>
       </c>
       <c r="D19">
-        <v>0.2752372224111497</v>
+        <v>0.09922634562441601</v>
       </c>
       <c r="E19">
-        <v>0.06832542475488879</v>
+        <v>0.08755344928589182</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.782832221711317</v>
+        <v>1.922550333027004</v>
       </c>
       <c r="H19">
-        <v>1.049814543872913</v>
+        <v>1.603344350078601</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.962593131560141</v>
+        <v>0.8831110678433163</v>
       </c>
       <c r="L19">
-        <v>0.3676945318795219</v>
+        <v>0.243400302070313</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.476181874348896</v>
+        <v>2.678834600217812</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.39156219077978</v>
+        <v>1.361554113229658</v>
       </c>
       <c r="C20">
-        <v>0.1363419193032342</v>
+        <v>0.07448752659914248</v>
       </c>
       <c r="D20">
-        <v>0.2867596799945744</v>
+        <v>0.1022405733530434</v>
       </c>
       <c r="E20">
-        <v>0.07016885035371345</v>
+        <v>0.08786322036414518</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.828414904884511</v>
+        <v>1.931029981068264</v>
       </c>
       <c r="H20">
-        <v>1.068149217938299</v>
+        <v>1.605448297326717</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.043678378460498</v>
+        <v>0.9031171992955933</v>
       </c>
       <c r="L20">
-        <v>0.3818388491908422</v>
+        <v>0.2466048900639635</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.469674808312419</v>
+        <v>2.675140249790189</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.704510237454429</v>
+        <v>1.434829239048838</v>
       </c>
       <c r="C21">
-        <v>0.1502189666493194</v>
+        <v>0.07866951403133271</v>
       </c>
       <c r="D21">
-        <v>0.3260444960444744</v>
+        <v>0.1124170992957971</v>
       </c>
       <c r="E21">
-        <v>0.07651323801054843</v>
+        <v>0.08894924958860173</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.986774772723891</v>
+        <v>1.96062831935069</v>
       </c>
       <c r="H21">
-        <v>1.13242771964758</v>
+        <v>1.613267520209945</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.319905397631942</v>
+        <v>0.9708537898871725</v>
       </c>
       <c r="L21">
-        <v>0.4301855697500372</v>
+        <v>0.2575279655703184</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.45080600903276</v>
+        <v>2.663586759710327</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.912928135593063</v>
+        <v>1.483339333864649</v>
       </c>
       <c r="C22">
-        <v>0.1594082365525225</v>
+        <v>0.08138099010430722</v>
       </c>
       <c r="D22">
-        <v>0.3522037926153274</v>
+        <v>0.1191050196368337</v>
       </c>
       <c r="E22">
-        <v>0.08078306395013968</v>
+        <v>0.08969273130942312</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.094566805319289</v>
+        <v>1.980800630570911</v>
       </c>
       <c r="H22">
-        <v>1.176622306650756</v>
+        <v>1.618937480377866</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.503653889255418</v>
+        <v>1.015510894838485</v>
       </c>
       <c r="L22">
-        <v>0.4624726574669467</v>
+        <v>0.264783350976586</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.440874366329993</v>
+        <v>2.656677457164761</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.801305642527836</v>
+        <v>1.457391790257191</v>
       </c>
       <c r="C23">
-        <v>0.1544913819656415</v>
+        <v>0.07993579658405281</v>
       </c>
       <c r="D23">
-        <v>0.3381937895512692</v>
+        <v>0.115532145015834</v>
       </c>
       <c r="E23">
-        <v>0.07849214096935242</v>
+        <v>0.08929283891667339</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.036615298632313</v>
+        <v>1.969958365624109</v>
       </c>
       <c r="H23">
-        <v>1.152822062650216</v>
+        <v>1.615860077165536</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.405262901210222</v>
+        <v>0.9916410704493899</v>
       </c>
       <c r="L23">
-        <v>0.4451722095100621</v>
+        <v>0.2609003414564484</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.445944037752241</v>
+        <v>2.66030629200344</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.386506398842357</v>
+        <v>1.360366943294537</v>
       </c>
       <c r="C24">
-        <v>0.1361168292374941</v>
+        <v>0.07441880509099974</v>
       </c>
       <c r="D24">
-        <v>0.2861249163596113</v>
+        <v>0.10207486242291</v>
       </c>
       <c r="E24">
-        <v>0.07006707799641632</v>
+        <v>0.08784603896784304</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.82589312598725</v>
+        <v>1.930560157399128</v>
       </c>
       <c r="H24">
-        <v>1.067132755391015</v>
+        <v>1.605329937309165</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.039212247778948</v>
+        <v>0.9020166084420111</v>
       </c>
       <c r="L24">
-        <v>0.3810591952616136</v>
+        <v>0.2464283226116208</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.470021288893236</v>
+        <v>2.675339897534442</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.952976951974051</v>
+        <v>1.258372853293281</v>
       </c>
       <c r="C25">
-        <v>0.1166822288042511</v>
+        <v>0.06837339157451083</v>
       </c>
       <c r="D25">
-        <v>0.231671269371958</v>
+        <v>0.08771540307448333</v>
       </c>
       <c r="E25">
-        <v>0.06143977743191797</v>
+        <v>0.08643023469967659</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.614452189285743</v>
+        <v>1.891602603748026</v>
       </c>
       <c r="H25">
-        <v>0.9828953879178641</v>
+        <v>1.596371124214386</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.655731091239204</v>
+        <v>0.8070001188514766</v>
       </c>
       <c r="L25">
-        <v>0.3143898868233777</v>
+        <v>0.2313169560587909</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.505243875357181</v>
+        <v>2.694302024032382</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_67/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_67/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.185544452515558</v>
+        <v>1.642908200998477</v>
       </c>
       <c r="C2">
-        <v>0.06383851775807869</v>
+        <v>0.1025757193896055</v>
       </c>
       <c r="D2">
-        <v>0.07727191630942798</v>
+        <v>0.1926770714833737</v>
       </c>
       <c r="E2">
-        <v>0.08551212623796545</v>
+        <v>0.05541366341124387</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.865936803006377</v>
+        <v>1.469841191784496</v>
       </c>
       <c r="H2">
-        <v>1.591832250881993</v>
+        <v>0.9267392981023477</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7384429030062734</v>
+        <v>1.380680375341825</v>
       </c>
       <c r="L2">
-        <v>0.2206154414127894</v>
+        <v>0.2669630813814621</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.710617785907999</v>
+        <v>1.538110249322088</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.137594777445287</v>
+        <v>1.437233058470127</v>
       </c>
       <c r="C3">
-        <v>0.06071183784505507</v>
+        <v>0.09308663757792601</v>
       </c>
       <c r="D3">
-        <v>0.07027250815387731</v>
+        <v>0.1667723881319318</v>
       </c>
       <c r="E3">
-        <v>0.08496741812924924</v>
+        <v>0.05150221819705791</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.850413626096724</v>
+        <v>1.377617458603211</v>
       </c>
       <c r="H3">
-        <v>1.590036896018105</v>
+        <v>0.8918251020234749</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6928460921953103</v>
+        <v>1.197748853956568</v>
       </c>
       <c r="L3">
-        <v>0.2136260789454951</v>
+        <v>0.2356476804343544</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.723139883655065</v>
+        <v>1.564260403222164</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.108845425852991</v>
+        <v>1.312780981530182</v>
       </c>
       <c r="C4">
-        <v>0.05876537745957933</v>
+        <v>0.08727899774733316</v>
       </c>
       <c r="D4">
-        <v>0.0660127414868299</v>
+        <v>0.151075513929456</v>
       </c>
       <c r="E4">
-        <v>0.08467119388705768</v>
+        <v>0.04917643844557773</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.841801578447374</v>
+        <v>1.323508520135263</v>
       </c>
       <c r="H4">
-        <v>1.589565559122917</v>
+        <v>0.87178469883996</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6652736217377253</v>
+        <v>1.086820113964848</v>
       </c>
       <c r="L4">
-        <v>0.2094638957522079</v>
+        <v>0.2167649308259172</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.731549818837543</v>
+        <v>1.582095683303265</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.097303835280002</v>
+        <v>1.262476836073432</v>
       </c>
       <c r="C5">
-        <v>0.05796543455799252</v>
+        <v>0.08491483019928125</v>
       </c>
       <c r="D5">
-        <v>0.06428631605588464</v>
+        <v>0.1447247369149096</v>
       </c>
       <c r="E5">
-        <v>0.08456009926772623</v>
+        <v>0.04824647902563584</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.838522883859213</v>
+        <v>1.302045762399217</v>
       </c>
       <c r="H5">
-        <v>1.589532124424323</v>
+        <v>0.8639483634800342</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.654144161821705</v>
+        <v>1.04192217091267</v>
       </c>
       <c r="L5">
-        <v>0.207800262874386</v>
+        <v>0.2091483029339543</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.735158143586794</v>
+        <v>1.58979264590063</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.095397872832507</v>
+        <v>1.254147302901259</v>
       </c>
       <c r="C6">
-        <v>0.0578321961614634</v>
+        <v>0.084522350997986</v>
       </c>
       <c r="D6">
-        <v>0.06400021412764545</v>
+        <v>0.1436727765821644</v>
       </c>
       <c r="E6">
-        <v>0.08454223325322907</v>
+        <v>0.04809310055068217</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.837992387339952</v>
+        <v>1.298516064035965</v>
       </c>
       <c r="H6">
-        <v>1.589536153050787</v>
+        <v>0.8626665070315198</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6523025554862443</v>
+        <v>1.034484189043695</v>
       </c>
       <c r="L6">
-        <v>0.2075259795126385</v>
+        <v>0.207888055046638</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.735768242670858</v>
+        <v>1.59109611350344</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.108689067377412</v>
+        <v>1.312100961335119</v>
       </c>
       <c r="C7">
-        <v>0.05875461650934</v>
+        <v>0.08724710646710321</v>
       </c>
       <c r="D7">
-        <v>0.0659894200755673</v>
+        <v>0.1509896880650388</v>
       </c>
       <c r="E7">
-        <v>0.0846696566698828</v>
+        <v>0.04916382616636206</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.841756426878277</v>
+        <v>1.323216747160473</v>
       </c>
       <c r="H7">
-        <v>1.589564465943425</v>
+        <v>0.8716777046874569</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.665123094693854</v>
+        <v>1.086213419441549</v>
       </c>
       <c r="L7">
-        <v>0.2094413278975225</v>
+        <v>0.2166619043573235</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.731597748506204</v>
+        <v>1.582197773859008</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.168867777269497</v>
+        <v>1.571579768739014</v>
       </c>
       <c r="C8">
-        <v>0.06276594883755138</v>
+        <v>0.09929862167628301</v>
       </c>
       <c r="D8">
-        <v>0.07485061274189775</v>
+        <v>0.1836976723568</v>
       </c>
       <c r="E8">
-        <v>0.08531637983508489</v>
+        <v>0.054048465864458</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.860393390955295</v>
+        <v>1.437491528558269</v>
       </c>
       <c r="H8">
-        <v>1.591082218412907</v>
+        <v>0.9143978222171256</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7226330046054272</v>
+        <v>1.317289471753298</v>
       </c>
       <c r="L8">
-        <v>0.2181786513121295</v>
+        <v>0.2560886098145403</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.714785590945525</v>
+        <v>1.546746125043128</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.292375943890704</v>
+        <v>2.097416316201816</v>
       </c>
       <c r="C9">
-        <v>0.07042263748118671</v>
+        <v>0.1231892744312688</v>
       </c>
       <c r="D9">
-        <v>0.09253199035607906</v>
+        <v>0.2498199078591057</v>
       </c>
       <c r="E9">
-        <v>0.086887825260618</v>
+        <v>0.06429084443549726</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.904254968994053</v>
+        <v>1.683795911221694</v>
       </c>
       <c r="H9">
-        <v>1.599068918329777</v>
+        <v>1.010285703139459</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8387872180522891</v>
+        <v>1.783618138418404</v>
       </c>
       <c r="L9">
-        <v>0.236340971679752</v>
+        <v>0.3365595295642976</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.687548424322003</v>
+        <v>1.49223823238124</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.386491262260108</v>
+        <v>2.497855415078504</v>
       </c>
       <c r="C10">
-        <v>0.07592356714809512</v>
+        <v>0.1410671977177884</v>
       </c>
       <c r="D10">
-        <v>0.1057149400281077</v>
+        <v>0.3001040684262648</v>
       </c>
       <c r="E10">
-        <v>0.08822733005385075</v>
+        <v>0.07231404899740568</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.940973984157552</v>
+        <v>1.881709118050082</v>
       </c>
       <c r="H10">
-        <v>1.607998921978862</v>
+        <v>1.089685903669562</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9262112725014049</v>
+        <v>2.137546844412384</v>
       </c>
       <c r="L10">
-        <v>0.2503168996042859</v>
+        <v>0.3982409586344744</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.671042956265367</v>
+        <v>1.462705526367557</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.430044947341173</v>
+        <v>2.684014653373197</v>
       </c>
       <c r="C11">
-        <v>0.07839979564995758</v>
+        <v>0.1493132182846466</v>
       </c>
       <c r="D11">
-        <v>0.1117555270147932</v>
+        <v>0.3234719312335699</v>
       </c>
       <c r="E11">
-        <v>0.08887691188329327</v>
+        <v>0.0760951763794786</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.958662173005479</v>
+        <v>1.976271874327438</v>
       </c>
       <c r="H11">
-        <v>1.612728236764923</v>
+        <v>1.128139321953171</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9664419930385293</v>
+        <v>2.301827168689044</v>
       </c>
       <c r="L11">
-        <v>0.2568133777561741</v>
+        <v>0.4270142042347089</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.664298043872776</v>
+        <v>1.451892431553532</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.446644245320101</v>
+        <v>2.75516839549482</v>
       </c>
       <c r="C12">
-        <v>0.07933376459101282</v>
+        <v>0.1524559976317477</v>
       </c>
       <c r="D12">
-        <v>0.1140493038042933</v>
+        <v>0.332402912459969</v>
       </c>
       <c r="E12">
-        <v>0.08912867618441567</v>
+        <v>0.07754798624274173</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.965502337936044</v>
+        <v>2.012810323844462</v>
       </c>
       <c r="H12">
-        <v>1.614615132418436</v>
+        <v>1.143072312423271</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9817429332529741</v>
+        <v>2.364581820703506</v>
       </c>
       <c r="L12">
-        <v>0.2592934413559931</v>
+        <v>0.4380270150884087</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.661853940706564</v>
+        <v>1.448206573911818</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.443064554007833</v>
+        <v>2.739813406810413</v>
       </c>
       <c r="C13">
-        <v>0.07913278272702939</v>
+        <v>0.1517781791121138</v>
       </c>
       <c r="D13">
-        <v>0.1135550149730591</v>
+        <v>0.3304756263004549</v>
       </c>
       <c r="E13">
-        <v>0.08907419715251663</v>
+        <v>0.07723412910763372</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.964022861774765</v>
+        <v>2.004907338607637</v>
       </c>
       <c r="H13">
-        <v>1.614204484254884</v>
+        <v>1.139839091266083</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.978444644861554</v>
+        <v>2.351040972058257</v>
       </c>
       <c r="L13">
-        <v>0.2587584257325091</v>
+        <v>0.4356497619071149</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.662375423456112</v>
+        <v>1.448981663648411</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.431408447714261</v>
+        <v>2.689854787748004</v>
       </c>
       <c r="C14">
-        <v>0.0784767082712392</v>
+        <v>0.1495713480948382</v>
       </c>
       <c r="D14">
-        <v>0.1119441100038756</v>
+        <v>0.3242049757646583</v>
       </c>
       <c r="E14">
-        <v>0.08889750883048464</v>
+        <v>0.07621426676417187</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.959222068319775</v>
+        <v>1.979262817297325</v>
       </c>
       <c r="H14">
-        <v>1.612881548151165</v>
+        <v>1.129360203572077</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9676994782506938</v>
+        <v>2.306978652534838</v>
       </c>
       <c r="L14">
-        <v>0.2570170132815122</v>
+        <v>0.4279178026848598</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.66409475900403</v>
+        <v>1.451580806002255</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.424282611610465</v>
+        <v>2.659342198731281</v>
       </c>
       <c r="C15">
-        <v>0.07807435975620081</v>
+        <v>0.1482223529132085</v>
       </c>
       <c r="D15">
-        <v>0.110958211575138</v>
+        <v>0.3203750594258423</v>
       </c>
       <c r="E15">
-        <v>0.08879003497484561</v>
+        <v>0.07559236925774826</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.956299954123494</v>
+        <v>1.963652272016532</v>
       </c>
       <c r="H15">
-        <v>1.61208371727767</v>
+        <v>1.122991092720326</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9611264099698076</v>
+        <v>2.280062545814218</v>
       </c>
       <c r="L15">
-        <v>0.255952951997088</v>
+        <v>0.423197441539557</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.665162240981672</v>
+        <v>1.453227099104282</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.383659822677487</v>
+        <v>2.485776940666881</v>
       </c>
       <c r="C16">
-        <v>0.07576121642719613</v>
+        <v>0.1405309040977158</v>
       </c>
       <c r="D16">
-        <v>0.1053210565852396</v>
+        <v>0.2985877785858975</v>
       </c>
       <c r="E16">
-        <v>0.08818568763528134</v>
+        <v>0.07206976066120063</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.939837869615161</v>
+        <v>1.87562688877324</v>
       </c>
       <c r="H16">
-        <v>1.607703279836073</v>
+        <v>1.087222833522731</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9235913899755985</v>
+        <v>2.126882836501039</v>
       </c>
       <c r="L16">
-        <v>0.2498951346262288</v>
+        <v>0.3963761210397934</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.671499137770255</v>
+        <v>1.46346758813327</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.358928647656398</v>
+        <v>2.380381635853837</v>
       </c>
       <c r="C17">
-        <v>0.07433550193979954</v>
+        <v>0.1358441052140762</v>
       </c>
       <c r="D17">
-        <v>0.1018740593880381</v>
+        <v>0.2853559356543656</v>
       </c>
       <c r="E17">
-        <v>0.08782524228022126</v>
+        <v>0.06994382014352496</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.929991398664441</v>
+        <v>1.822839777692167</v>
       </c>
       <c r="H17">
-        <v>1.605186924837625</v>
+        <v>1.065902357533446</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9006830602115201</v>
+        <v>2.033801656062366</v>
       </c>
       <c r="L17">
-        <v>0.246214423871308</v>
+        <v>0.3801147577335371</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.675582353016011</v>
+        <v>1.470442881555513</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.344773594609308</v>
+        <v>2.32013178120576</v>
       </c>
       <c r="C18">
-        <v>0.07351300293655072</v>
+        <v>0.1331587859425554</v>
       </c>
       <c r="D18">
-        <v>0.0998955372266721</v>
+        <v>0.2777910382218067</v>
       </c>
       <c r="E18">
-        <v>0.08762171091863635</v>
+        <v>0.06873326043453076</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.924420609358179</v>
+        <v>1.792899400029569</v>
       </c>
       <c r="H18">
-        <v>1.603802360541096</v>
+        <v>1.053856705560179</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8875501853418371</v>
+        <v>1.980567357635778</v>
       </c>
       <c r="L18">
-        <v>0.2441104348514358</v>
+        <v>0.3708279253121844</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.678002759679217</v>
+        <v>1.474699541173891</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.339992901057769</v>
+        <v>2.299793450806874</v>
       </c>
       <c r="C19">
-        <v>0.07323409424290617</v>
+        <v>0.1322512576510206</v>
       </c>
       <c r="D19">
-        <v>0.09922634562441601</v>
+        <v>0.2752372224109223</v>
       </c>
       <c r="E19">
-        <v>0.08755344928589182</v>
+        <v>0.06832542475488168</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.922550333027004</v>
+        <v>1.782832221711317</v>
       </c>
       <c r="H19">
-        <v>1.603344350078601</v>
+        <v>1.049814543872884</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8831110678433163</v>
+        <v>1.962593131560197</v>
       </c>
       <c r="L19">
-        <v>0.243400302070313</v>
+        <v>0.3676945318794367</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.678834600217812</v>
+        <v>1.476181874348867</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.361554113229658</v>
+        <v>2.391562190779723</v>
       </c>
       <c r="C20">
-        <v>0.07448752659914248</v>
+        <v>0.1363419193031348</v>
       </c>
       <c r="D20">
-        <v>0.1022405733530434</v>
+        <v>0.2867596799945744</v>
       </c>
       <c r="E20">
-        <v>0.08786322036414518</v>
+        <v>0.07016885035369924</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.931029981068264</v>
+        <v>1.828414904884539</v>
       </c>
       <c r="H20">
-        <v>1.605448297326717</v>
+        <v>1.068149217938412</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9031171992955933</v>
+        <v>2.043678378460527</v>
       </c>
       <c r="L20">
-        <v>0.2466048900639635</v>
+        <v>0.3818388491908138</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.675140249790189</v>
+        <v>1.469674808312348</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.434829239048838</v>
+        <v>2.704510237454315</v>
       </c>
       <c r="C21">
-        <v>0.07866951403133271</v>
+        <v>0.1502189666491205</v>
       </c>
       <c r="D21">
-        <v>0.1124170992957971</v>
+        <v>0.3260444960448012</v>
       </c>
       <c r="E21">
-        <v>0.08894924958860173</v>
+        <v>0.07651323801055199</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.96062831935069</v>
+        <v>1.986774772723891</v>
       </c>
       <c r="H21">
-        <v>1.613267520209945</v>
+        <v>1.13242771964758</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9708537898871725</v>
+        <v>2.31990539763197</v>
       </c>
       <c r="L21">
-        <v>0.2575279655703184</v>
+        <v>0.4301855697501225</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.663586759710327</v>
+        <v>1.450806009032789</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.483339333864649</v>
+        <v>2.912928135592949</v>
       </c>
       <c r="C22">
-        <v>0.08138099010430722</v>
+        <v>0.1594082365523093</v>
       </c>
       <c r="D22">
-        <v>0.1191050196368337</v>
+        <v>0.3522037926153274</v>
       </c>
       <c r="E22">
-        <v>0.08969273130942312</v>
+        <v>0.08078306395016455</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.980800630570911</v>
+        <v>2.094566805319289</v>
       </c>
       <c r="H22">
-        <v>1.618937480377866</v>
+        <v>1.176622306650643</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.015510894838485</v>
+        <v>2.503653889255332</v>
       </c>
       <c r="L22">
-        <v>0.264783350976586</v>
+        <v>0.4624726574669324</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.656677457164761</v>
+        <v>1.440874366330036</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.457391790257191</v>
+        <v>2.801305642527723</v>
       </c>
       <c r="C23">
-        <v>0.07993579658405281</v>
+        <v>0.1544913819654568</v>
       </c>
       <c r="D23">
-        <v>0.115532145015834</v>
+        <v>0.3381937895511555</v>
       </c>
       <c r="E23">
-        <v>0.08929283891667339</v>
+        <v>0.07849214096933821</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.969958365624109</v>
+        <v>2.036615298632398</v>
       </c>
       <c r="H23">
-        <v>1.615860077165536</v>
+        <v>1.152822062650216</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9916410704493899</v>
+        <v>2.405262901210079</v>
       </c>
       <c r="L23">
-        <v>0.2609003414564484</v>
+        <v>0.445172209509991</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.66030629200344</v>
+        <v>1.445944037752213</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.360366943294537</v>
+        <v>2.386506398842414</v>
       </c>
       <c r="C24">
-        <v>0.07441880509099974</v>
+        <v>0.1361168292375368</v>
       </c>
       <c r="D24">
-        <v>0.10207486242291</v>
+        <v>0.2861249163595119</v>
       </c>
       <c r="E24">
-        <v>0.08784603896784304</v>
+        <v>0.07006707799638789</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.930560157399128</v>
+        <v>1.825893125987335</v>
       </c>
       <c r="H24">
-        <v>1.605329937309165</v>
+        <v>1.067132755391015</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9020166084420111</v>
+        <v>2.039212247778948</v>
       </c>
       <c r="L24">
-        <v>0.2464283226116208</v>
+        <v>0.3810591952616846</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.675339897534442</v>
+        <v>1.470021288893307</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.258372853293281</v>
+        <v>1.952976951974051</v>
       </c>
       <c r="C25">
-        <v>0.06837339157451083</v>
+        <v>0.1166822288044358</v>
       </c>
       <c r="D25">
-        <v>0.08771540307448333</v>
+        <v>0.2316712693720433</v>
       </c>
       <c r="E25">
-        <v>0.08643023469967659</v>
+        <v>0.06143977743190021</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.891602603748026</v>
+        <v>1.614452189285544</v>
       </c>
       <c r="H25">
-        <v>1.596371124214386</v>
+        <v>0.9828953879178357</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8070001188514766</v>
+        <v>1.655731091239147</v>
       </c>
       <c r="L25">
-        <v>0.2313169560587909</v>
+        <v>0.3143898868233208</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.694302024032382</v>
+        <v>1.505243875357166</v>
       </c>
       <c r="O25">
         <v>0</v>
